--- a/input_data/admin_data/directory.xlsx
+++ b/input_data/admin_data/directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\i.flores.PSE\Documents\GitHub\dina-latam\input_data\admin_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE3B8D9-B1A4-4B5C-A80D-A3823E057C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92931E9C-2003-4559-896D-B5789872158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6195" yWindow="15" windowWidth="18165" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="132">
   <si>
     <t>country</t>
   </si>
@@ -433,9 +433,6 @@
   </si>
   <si>
     <t>Gross salaries of all formal employees. Income tax included</t>
-  </si>
-  <si>
-    <t>0.11</t>
   </si>
 </sst>
 </file>
@@ -1732,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2795,8 +2792,8 @@
       <c r="B76" s="14">
         <v>2023</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>132</v>
+      <c r="C76" s="14">
+        <v>0.9</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="9"/>

--- a/input_data/admin_data/directory.xlsx
+++ b/input_data/admin_data/directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\i.flores.PSE\Documents\GitHub\dina-latam\input_data\admin_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92931E9C-2003-4559-896D-B5789872158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AC4212-F187-493E-A7A0-8B82EF442249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="15" windowWidth="18165" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trust" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="132">
   <si>
     <t>country</t>
   </si>
@@ -1727,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2800,15 +2800,18 @@
     </row>
     <row r="77" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B77" s="14">
-        <v>2022</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="16"/>
+        <v>2001</v>
+      </c>
+      <c r="C77" s="14" t="str">
+        <f t="shared" ref="C77:C85" si="0">C78</f>
+        <v>0.96</v>
+      </c>
+      <c r="D77" s="15">
+        <v>0.8</v>
+      </c>
       <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2816,14 +2819,14 @@
         <v>30</v>
       </c>
       <c r="B78" s="14">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C78" s="14" t="str">
-        <f t="shared" ref="C78:C86" si="0">C79</f>
+        <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
       <c r="D78" s="15">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="E78" s="9"/>
     </row>
@@ -2832,7 +2835,7 @@
         <v>30</v>
       </c>
       <c r="B79" s="14">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C79" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2848,7 +2851,7 @@
         <v>30</v>
       </c>
       <c r="B80" s="14">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C80" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2864,7 +2867,7 @@
         <v>30</v>
       </c>
       <c r="B81" s="14">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C81" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2880,14 +2883,14 @@
         <v>30</v>
       </c>
       <c r="B82" s="14">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C82" s="14" t="str">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
       <c r="D82" s="15">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="E82" s="9"/>
     </row>
@@ -2896,14 +2899,14 @@
         <v>30</v>
       </c>
       <c r="B83" s="14">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C83" s="14" t="str">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
       <c r="D83" s="15">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="E83" s="9"/>
     </row>
@@ -2912,14 +2915,14 @@
         <v>30</v>
       </c>
       <c r="B84" s="14">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C84" s="14" t="str">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
       <c r="D84" s="15">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="E84" s="9"/>
     </row>
@@ -2928,14 +2931,14 @@
         <v>30</v>
       </c>
       <c r="B85" s="14">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C85" s="14" t="str">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
       <c r="D85" s="15">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="E85" s="9"/>
     </row>
@@ -2944,14 +2947,13 @@
         <v>30</v>
       </c>
       <c r="B86" s="14">
-        <v>2009</v>
-      </c>
-      <c r="C86" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>0.96</v>
+        <v>2010</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="D86" s="15">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="E86" s="9"/>
     </row>
@@ -2960,13 +2962,13 @@
         <v>30</v>
       </c>
       <c r="B87" s="14">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D87" s="15">
-        <v>0.81</v>
+        <v>0.76</v>
       </c>
       <c r="E87" s="9"/>
     </row>
@@ -2975,7 +2977,7 @@
         <v>30</v>
       </c>
       <c r="B88" s="14">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>31</v>
@@ -2990,7 +2992,7 @@
         <v>30</v>
       </c>
       <c r="B89" s="14">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>31</v>
@@ -3005,13 +3007,13 @@
         <v>30</v>
       </c>
       <c r="B90" s="14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D90" s="15">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E90" s="9"/>
     </row>
@@ -3020,7 +3022,7 @@
         <v>30</v>
       </c>
       <c r="B91" s="14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>32</v>
@@ -3035,13 +3037,13 @@
         <v>30</v>
       </c>
       <c r="B92" s="14">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D92" s="15">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="E92" s="9"/>
     </row>
@@ -3050,30 +3052,28 @@
         <v>30</v>
       </c>
       <c r="B93" s="14">
-        <v>2016</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>32</v>
+        <v>2017</v>
+      </c>
+      <c r="C93" s="14" t="str">
+        <f>C92</f>
+        <v>0.95</v>
       </c>
       <c r="D93" s="15">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="E93" s="9"/>
     </row>
     <row r="94" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B94" s="14">
-        <v>2017</v>
-      </c>
-      <c r="C94" s="14" t="str">
-        <f>C93</f>
-        <v>0.95</v>
-      </c>
-      <c r="D94" s="15">
-        <v>0.73</v>
-      </c>
+        <v>2008</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="16"/>
       <c r="E94" s="9"/>
     </row>
     <row r="95" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3081,7 +3081,7 @@
         <v>33</v>
       </c>
       <c r="B95" s="14">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>32</v>
@@ -3094,7 +3094,7 @@
         <v>33</v>
       </c>
       <c r="B96" s="14">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>32</v>
@@ -3107,7 +3107,7 @@
         <v>33</v>
       </c>
       <c r="B97" s="14">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>32</v>
@@ -3117,15 +3117,17 @@
     </row>
     <row r="98" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B98" s="14">
-        <v>2011</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D98" s="16"/>
+        <v>2010</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="15">
+        <v>0.82</v>
+      </c>
       <c r="E98" s="9"/>
     </row>
     <row r="99" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3133,7 +3135,7 @@
         <v>34</v>
       </c>
       <c r="B99" s="14">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>6</v>
@@ -3148,7 +3150,7 @@
         <v>34</v>
       </c>
       <c r="B100" s="14">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>6</v>
@@ -3160,17 +3162,15 @@
     </row>
     <row r="101" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B101" s="14">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="15">
-        <v>0.82</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D101" s="16"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3178,7 +3178,7 @@
         <v>35</v>
       </c>
       <c r="B102" s="14">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>36</v>
@@ -3191,7 +3191,7 @@
         <v>35</v>
       </c>
       <c r="B103" s="14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>36</v>
@@ -3201,15 +3201,17 @@
     </row>
     <row r="104" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B104" s="14">
-        <v>2018</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D104" s="16"/>
+        <v>2000</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="15">
+        <v>0.97</v>
+      </c>
       <c r="E104" s="9"/>
     </row>
     <row r="105" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3217,7 +3219,7 @@
         <v>37</v>
       </c>
       <c r="B105" s="14">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>5</v>
@@ -3232,13 +3234,13 @@
         <v>37</v>
       </c>
       <c r="B106" s="14">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="15">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E106" s="9"/>
     </row>
@@ -3247,7 +3249,7 @@
         <v>37</v>
       </c>
       <c r="B107" s="14">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>5</v>
@@ -3262,13 +3264,13 @@
         <v>37</v>
       </c>
       <c r="B108" s="14">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D108" s="15">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E108" s="9"/>
     </row>
@@ -3277,10 +3279,10 @@
         <v>37</v>
       </c>
       <c r="B109" s="14">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D109" s="15">
         <v>0.97</v>
@@ -3292,7 +3294,7 @@
         <v>37</v>
       </c>
       <c r="B110" s="14">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>6</v>
@@ -3307,13 +3309,13 @@
         <v>37</v>
       </c>
       <c r="B111" s="14">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D111" s="15">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="E111" s="9"/>
     </row>
@@ -3322,7 +3324,7 @@
         <v>37</v>
       </c>
       <c r="B112" s="14">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>7</v>
@@ -3337,13 +3339,13 @@
         <v>37</v>
       </c>
       <c r="B113" s="14">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="15">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="E113" s="9"/>
     </row>
@@ -3352,13 +3354,13 @@
         <v>37</v>
       </c>
       <c r="B114" s="14">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D114" s="15">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E114" s="9"/>
     </row>
@@ -3367,7 +3369,7 @@
         <v>37</v>
       </c>
       <c r="B115" s="14">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>7</v>
@@ -3382,13 +3384,13 @@
         <v>37</v>
       </c>
       <c r="B116" s="14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D116" s="15">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E116" s="9"/>
     </row>
@@ -3397,7 +3399,7 @@
         <v>37</v>
       </c>
       <c r="B117" s="14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>7</v>
@@ -3412,7 +3414,7 @@
         <v>37</v>
       </c>
       <c r="B118" s="14">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>7</v>
@@ -3427,7 +3429,7 @@
         <v>37</v>
       </c>
       <c r="B119" s="14">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>7</v>
@@ -3439,17 +3441,15 @@
     </row>
     <row r="120" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B120" s="14">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D120" s="15">
-        <v>0.97</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D120" s="16"/>
       <c r="E120" s="9"/>
     </row>
     <row r="121" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3457,7 +3457,7 @@
         <v>38</v>
       </c>
       <c r="B121" s="14">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>39</v>
@@ -3470,7 +3470,7 @@
         <v>38</v>
       </c>
       <c r="B122" s="14">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>39</v>
@@ -3483,7 +3483,7 @@
         <v>38</v>
       </c>
       <c r="B123" s="14">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>39</v>
@@ -3496,7 +3496,7 @@
         <v>38</v>
       </c>
       <c r="B124" s="14">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>39</v>
@@ -3509,7 +3509,7 @@
         <v>38</v>
       </c>
       <c r="B125" s="14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>39</v>
@@ -3522,7 +3522,7 @@
         <v>38</v>
       </c>
       <c r="B126" s="14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>39</v>
@@ -3535,7 +3535,7 @@
         <v>38</v>
       </c>
       <c r="B127" s="14">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>39</v>
@@ -3545,13 +3545,13 @@
     </row>
     <row r="128" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B128" s="14">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D128" s="16"/>
       <c r="E128" s="9"/>
@@ -3561,7 +3561,7 @@
         <v>40</v>
       </c>
       <c r="B129" s="14">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>12</v>
@@ -3574,7 +3574,7 @@
         <v>40</v>
       </c>
       <c r="B130" s="14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>12</v>
@@ -3587,7 +3587,7 @@
         <v>40</v>
       </c>
       <c r="B131" s="14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>12</v>
@@ -3600,7 +3600,7 @@
         <v>40</v>
       </c>
       <c r="B132" s="14">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>12</v>
@@ -3613,7 +3613,7 @@
         <v>40</v>
       </c>
       <c r="B133" s="14">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>12</v>
@@ -3626,7 +3626,7 @@
         <v>40</v>
       </c>
       <c r="B134" s="14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>12</v>
@@ -3639,7 +3639,7 @@
         <v>40</v>
       </c>
       <c r="B135" s="14">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>12</v>
@@ -3647,27 +3647,14 @@
       <c r="D135" s="16"/>
       <c r="E135" s="9"/>
     </row>
-    <row r="136" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B136" s="14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="16"/>
-      <c r="E136" s="9"/>
-    </row>
-    <row r="137" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B137" s="14">
-        <v>2020</v>
-      </c>
-      <c r="C137" s="13" t="s">
         <v>12</v>
       </c>
     </row>

--- a/input_data/admin_data/directory.xlsx
+++ b/input_data/admin_data/directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\i.flores.PSE\Documents\GitHub\dina-latam\input_data\admin_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AC4212-F187-493E-A7A0-8B82EF442249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE681B0D-013D-4532-BA12-257292FF9445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="825" windowWidth="21120" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trust" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="132">
   <si>
     <t>country</t>
   </si>
@@ -1727,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3201,32 +3201,28 @@
     </row>
     <row r="104" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B104" s="14">
-        <v>2000</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="15">
-        <v>0.97</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="16"/>
       <c r="E104" s="9"/>
     </row>
     <row r="105" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B105" s="14">
-        <v>2001</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="15">
-        <v>0.97</v>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" s="16"/>
       <c r="E105" s="9"/>
     </row>
     <row r="106" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3234,13 +3230,13 @@
         <v>37</v>
       </c>
       <c r="B106" s="14">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="15">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E106" s="9"/>
     </row>
@@ -3249,13 +3245,13 @@
         <v>37</v>
       </c>
       <c r="B107" s="14">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="15">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E107" s="9"/>
     </row>
@@ -3264,13 +3260,13 @@
         <v>37</v>
       </c>
       <c r="B108" s="14">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D108" s="15">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E108" s="9"/>
     </row>
@@ -3279,13 +3275,13 @@
         <v>37</v>
       </c>
       <c r="B109" s="14">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109" s="15">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E109" s="9"/>
     </row>
@@ -3294,10 +3290,10 @@
         <v>37</v>
       </c>
       <c r="B110" s="14">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D110" s="15">
         <v>0.97</v>
@@ -3309,13 +3305,13 @@
         <v>37</v>
       </c>
       <c r="B111" s="14">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D111" s="15">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="E111" s="9"/>
     </row>
@@ -3324,13 +3320,13 @@
         <v>37</v>
       </c>
       <c r="B112" s="14">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D112" s="15">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="E112" s="9"/>
     </row>
@@ -3339,13 +3335,13 @@
         <v>37</v>
       </c>
       <c r="B113" s="14">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="15">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="E113" s="9"/>
     </row>
@@ -3354,13 +3350,13 @@
         <v>37</v>
       </c>
       <c r="B114" s="14">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D114" s="15">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="E114" s="9"/>
     </row>
@@ -3369,13 +3365,13 @@
         <v>37</v>
       </c>
       <c r="B115" s="14">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D115" s="15">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E115" s="9"/>
     </row>
@@ -3384,13 +3380,13 @@
         <v>37</v>
       </c>
       <c r="B116" s="14">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D116" s="15">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E116" s="9"/>
     </row>
@@ -3399,13 +3395,13 @@
         <v>37</v>
       </c>
       <c r="B117" s="14">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D117" s="15">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E117" s="9"/>
     </row>
@@ -3414,7 +3410,7 @@
         <v>37</v>
       </c>
       <c r="B118" s="14">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>7</v>
@@ -3429,7 +3425,7 @@
         <v>37</v>
       </c>
       <c r="B119" s="14">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>7</v>
@@ -3441,28 +3437,32 @@
     </row>
     <row r="120" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B120" s="14">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D120" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="D120" s="15">
+        <v>0.97</v>
+      </c>
       <c r="E120" s="9"/>
     </row>
     <row r="121" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B121" s="14">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D121" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="D121" s="15">
+        <v>0.97</v>
+      </c>
       <c r="E121" s="9"/>
     </row>
     <row r="122" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3470,7 +3470,7 @@
         <v>38</v>
       </c>
       <c r="B122" s="14">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>39</v>
@@ -3483,7 +3483,7 @@
         <v>38</v>
       </c>
       <c r="B123" s="14">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>39</v>
@@ -3496,7 +3496,7 @@
         <v>38</v>
       </c>
       <c r="B124" s="14">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>39</v>
@@ -3509,7 +3509,7 @@
         <v>38</v>
       </c>
       <c r="B125" s="14">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>39</v>
@@ -3522,7 +3522,7 @@
         <v>38</v>
       </c>
       <c r="B126" s="14">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>39</v>
@@ -3535,7 +3535,7 @@
         <v>38</v>
       </c>
       <c r="B127" s="14">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>39</v>
@@ -3545,26 +3545,26 @@
     </row>
     <row r="128" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B128" s="14">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D128" s="16"/>
       <c r="E128" s="9"/>
     </row>
     <row r="129" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B129" s="14">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D129" s="16"/>
       <c r="E129" s="9"/>
@@ -3574,7 +3574,7 @@
         <v>40</v>
       </c>
       <c r="B130" s="14">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>12</v>
@@ -3587,7 +3587,7 @@
         <v>40</v>
       </c>
       <c r="B131" s="14">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>12</v>
@@ -3600,7 +3600,7 @@
         <v>40</v>
       </c>
       <c r="B132" s="14">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>12</v>
@@ -3613,7 +3613,7 @@
         <v>40</v>
       </c>
       <c r="B133" s="14">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>12</v>
@@ -3626,7 +3626,7 @@
         <v>40</v>
       </c>
       <c r="B134" s="14">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>12</v>
@@ -3639,7 +3639,7 @@
         <v>40</v>
       </c>
       <c r="B135" s="14">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>12</v>
@@ -3647,14 +3647,40 @@
       <c r="D135" s="16"/>
       <c r="E135" s="9"/>
     </row>
-    <row r="136" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B136" s="14">
+        <v>2018</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="16"/>
+      <c r="E136" s="9"/>
+    </row>
+    <row r="137" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B137" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="16"/>
+      <c r="E137" s="9"/>
+    </row>
+    <row r="138" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B138" s="14">
         <v>2020</v>
       </c>
-      <c r="C136" s="13" t="s">
+      <c r="C138" s="13" t="s">
         <v>12</v>
       </c>
     </row>
